--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_21-46.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_21-46.xlsx
@@ -89,6 +89,9 @@
     <t>CHROMOVA 30CAPS</t>
   </si>
   <si>
+    <t>CIPALAFIL 5MG 30 TABS.</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>6:2</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>SENSODERM صابون مرطب</t>
   </si>
   <si>
@@ -275,7 +281,13 @@
     <t>STOPADOL 500MG 20 TABS.</t>
   </si>
   <si>
+    <t>TAMSUL 0.4MG 30 CAPSULES</t>
+  </si>
+  <si>
     <t>TANTUM VERDE 0.15% MOUTH WASH 125 ML</t>
+  </si>
+  <si>
+    <t>TARGOFLOXIN 750 MG 10 F.C.TABS.</t>
   </si>
   <si>
     <t>THROMBEXX DNA 1120 I.U/100GM TOPICAL GEL 40 GM</t>
@@ -1349,11 +1361,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1369,17 +1381,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>43.329999999999998</v>
+        <v>74</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1387,7 +1399,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1395,17 +1407,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>25</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1427,11 +1439,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1447,17 +1459,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1479,11 +1491,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1491,7 +1503,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1499,17 +1511,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1525,17 +1537,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1551,17 +1563,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,7 +1581,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1577,13 +1589,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>133.5</v>
+        <v>42</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1609,7 +1621,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>57</v>
+        <v>133.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1629,13 +1641,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1647,7 +1659,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1655,13 +1667,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1673,7 +1685,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1681,17 +1693,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1699,7 +1711,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1707,13 +1719,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1725,7 +1737,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1733,13 +1745,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1759,17 +1771,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1791,7 +1803,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1811,17 +1823,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1829,7 +1841,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1837,17 +1849,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1855,7 +1867,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1863,17 +1875,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1889,13 +1901,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1915,17 +1927,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1941,17 +1953,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1959,7 +1971,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1967,17 +1979,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1985,7 +1997,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1993,13 +2005,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>280.25</v>
+        <v>33</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2019,17 +2031,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>16.91</v>
+        <v>280.25</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2037,7 +2049,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2045,17 +2057,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>120</v>
+        <v>16.91</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2071,17 +2083,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2097,17 +2109,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>71.5</v>
+        <v>180</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2123,17 +2135,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>36</v>
+        <v>71.5</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2149,17 +2161,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2181,7 +2193,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2201,13 +2213,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2227,13 +2239,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2253,17 +2265,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2271,7 +2283,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2279,17 +2291,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>540</v>
+        <v>30</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2305,17 +2317,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>48</v>
+        <v>540</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2323,7 +2335,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2331,17 +2343,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2357,17 +2369,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>136.16</v>
+        <v>20</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2383,17 +2395,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>82</v>
+        <v>136.16</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2409,17 +2421,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2435,17 +2447,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2453,7 +2465,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2461,17 +2473,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2487,17 +2499,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2513,17 +2525,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2539,13 +2551,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2565,17 +2577,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2591,17 +2603,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2617,17 +2629,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2635,7 +2647,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2643,13 +2655,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>30.07</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2661,7 +2673,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2669,13 +2681,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2687,7 +2699,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2701,7 +2713,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2713,7 +2725,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2721,17 +2733,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2739,7 +2751,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2747,17 +2759,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>34</v>
+        <v>30.07</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2765,7 +2777,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2773,17 +2785,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2791,7 +2803,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2799,17 +2811,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2817,7 +2829,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2825,17 +2837,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2843,7 +2855,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2851,17 +2863,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2869,7 +2881,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2877,13 +2889,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2903,17 +2915,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2921,7 +2933,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2929,17 +2941,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>57.600000000000001</v>
+        <v>192</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2947,7 +2959,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2955,17 +2967,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>3.98</v>
+        <v>45</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2973,7 +2985,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2981,7 +2993,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -2999,7 +3011,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3007,17 +3019,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3025,7 +3037,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3033,17 +3045,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>70</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>43</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3059,17 +3071,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>65</v>
+        <v>3.98</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3077,7 +3089,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3085,13 +3097,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3103,7 +3115,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3111,13 +3123,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3129,7 +3141,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3137,17 +3149,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>69.299999999999997</v>
+        <v>70</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3155,7 +3167,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3163,13 +3175,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>44.549999999999997</v>
+        <v>65</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3189,13 +3201,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3215,13 +3227,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3241,13 +3253,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>35</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3267,17 +3279,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>105</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>116</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3293,7 +3305,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -3306,38 +3318,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="K94" s="10">
-        <v>6415.2200000000003</v>
-      </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="11">
+    <row r="94" ht="24.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c t="s" r="B94" s="7">
         <v>126</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c t="s" r="F95" s="12">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c t="s" r="H94" s="8">
+        <v>120</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9">
+        <v>20</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c t="s" r="N94" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" ht="25.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>92</v>
+      </c>
+      <c t="s" r="B95" s="7">
         <v>127</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-      <c t="s" r="I95" s="14">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c t="s" r="H95" s="8">
+        <v>120</v>
+      </c>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="9">
+        <v>35</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c t="s" r="N95" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
         <v>128</v>
       </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
+        <v>44</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>105</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c t="s" r="N96" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
+        <v>129</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>95</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>30</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="K98" s="10">
+        <v>6708.2200000000003</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c t="s" r="A99" s="11">
+        <v>130</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c t="s" r="F99" s="12">
+        <v>131</v>
+      </c>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+      <c t="s" r="I99" s="14">
+        <v>132</v>
+      </c>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
+  <mergeCells count="293">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3615,10 +3731,22 @@
     <mergeCell ref="B93:G93"/>
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="I95:N95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:N99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
